--- a/Docs/企劃/忍豆用資料表.xlsx
+++ b/Docs/企劃/忍豆用資料表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="315" windowWidth="27735" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="315" windowWidth="27735" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="技能分級合成試算" sheetId="1" r:id="rId1"/>
@@ -581,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -606,12 +606,12 @@
     <col min="32" max="32" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="66">
+    <row r="2" spans="1:16" ht="66">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -628,7 +628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -642,7 +642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:16">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -656,7 +656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -697,7 +697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="3" customFormat="1">
+    <row r="7" spans="1:16" s="3" customFormat="1">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -748,58 +748,82 @@
         <f t="shared" si="0"/>
         <v>2048</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="3">
+        <f t="shared" ref="N7" si="1">M7*$A7</f>
+        <v>4096</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" ref="O7" si="2">N7*$A7</f>
+        <v>8192</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" ref="P7" si="3">O7*$A7</f>
+        <v>16384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="B8">
         <f>1/B7/2</f>
         <v>0.5</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:M8" si="1">1/C7/2</f>
+        <f t="shared" ref="C8:P8" si="4">1/C7/2</f>
         <v>0.25</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.25E-2</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.125E-2</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.5625E-2</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.8125E-3</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.90625E-3</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.953125E-3</v>
       </c>
       <c r="K8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.765625E-4</v>
       </c>
       <c r="L8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.8828125E-4</v>
       </c>
       <c r="M8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.44140625E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>1.220703125E-4</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="4"/>
+        <v>6.103515625E-5</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="4"/>
+        <v>3.0517578125E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>3</v>
       </c>
@@ -807,13 +831,13 @@
         <v>27</v>
       </c>
       <c r="I9">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:16">
       <c r="B10" s="3">
         <f>A9*$M$7/60</f>
         <v>102.4</v>
@@ -828,18 +852,18 @@
       </c>
       <c r="I10" s="3">
         <f>B10*$I9</f>
-        <v>5120</v>
+        <v>102.4</v>
       </c>
       <c r="J10" s="3">
         <f>C10*$I9</f>
-        <v>213.33333333333334</v>
+        <v>4.2666666666666666</v>
       </c>
       <c r="K10" s="3">
         <f>D10*$I9</f>
-        <v>0.58447488584474883</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.1689497716894977E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
@@ -859,7 +883,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:16">
       <c r="A12">
         <f>A9</f>
         <v>3</v>
@@ -874,7 +898,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:16">
       <c r="B13" s="3">
         <f>B10/8</f>
         <v>12.8</v>
@@ -900,7 +924,7 @@
         <v>7.3059360730593603E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:16">
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
@@ -920,7 +944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:16">
       <c r="A15">
         <f>A9</f>
         <v>3</v>
@@ -935,7 +959,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:16">
       <c r="B16" s="3">
         <f>B13/8</f>
         <v>1.6</v>
@@ -992,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1123,7 +1147,7 @@
         <v>36</v>
       </c>
       <c r="E10">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>80</v>
@@ -1153,11 +1177,11 @@
         <v>7.051228070175438</v>
       </c>
       <c r="D12">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" ref="E12:G14" si="0">$C12*E$10</f>
-        <v>211.53684210526313</v>
+        <v>7.051228070175438</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="0"/>
@@ -1177,11 +1201,11 @@
         <v>0.88140350877192974</v>
       </c>
       <c r="D13">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" si="0"/>
-        <v>26.442105263157892</v>
+        <v>0.88140350877192974</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="0"/>
@@ -1201,11 +1225,11 @@
         <v>0.11017543859649122</v>
       </c>
       <c r="D14">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="0"/>
-        <v>3.3052631578947365</v>
+        <v>0.11017543859649122</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="0"/>
@@ -1223,15 +1247,15 @@
       <c r="C15" s="6"/>
       <c r="E15" s="6">
         <f>E12*$D$12+E13*$D$13+E14*$D$14</f>
-        <v>173.36105263157896</v>
+        <v>7.051228070175438</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" ref="F15:G15" si="1">F12*$D$12+F13*$D$13+F14*$D$14</f>
-        <v>462.29614035087712</v>
+        <v>564.09824561403502</v>
       </c>
       <c r="G15" s="6">
         <f t="shared" si="1"/>
-        <v>577.87017543859645</v>
+        <v>705.12280701754378</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1256,7 +1280,7 @@
       </c>
       <c r="E17" s="6">
         <f t="shared" ref="E17:G19" si="2">$C17*E$10</f>
-        <v>606.45517241379309</v>
+        <v>20.215172413793102</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="2"/>
@@ -1280,7 +1304,7 @@
       </c>
       <c r="E18" s="6">
         <f t="shared" si="2"/>
-        <v>75.806896551724137</v>
+        <v>2.5268965517241377</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="2"/>
@@ -1304,7 +1328,7 @@
       </c>
       <c r="E19" s="6">
         <f t="shared" si="2"/>
-        <v>9.4758620689655171</v>
+        <v>0.31586206896551722</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" si="2"/>
@@ -1321,15 +1345,15 @@
       </c>
       <c r="E20" s="6">
         <f>E17*$D$12+E18*$D$13+E19*$D$14</f>
-        <v>497.00896551724134</v>
+        <v>20.215172413793102</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" ref="F20" si="3">F17*$D$12+F18*$D$13+F19*$D$14</f>
-        <v>1325.3572413793104</v>
+        <v>1617.2137931034481</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" ref="G20" si="4">G17*$D$12+G18*$D$13+G19*$D$14</f>
-        <v>1656.6965517241379</v>
+        <v>2021.5172413793102</v>
       </c>
     </row>
   </sheetData>
